--- a/OpenWaters/OpenWaters/App_Docs/SampBio_ImportTemplate.xlsx
+++ b/OpenWaters/OpenWaters/App_Docs/SampBio_ImportTemplate.xlsx
@@ -1,86 +1,131 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dougtimms\Dropbox\open-environment\products\OpenWaters_git\open-waters\OpenWaters\OpenWaters\App_Docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="105" windowWidth="15480" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Metrics" sheetId="1" r:id="rId1"/>
+    <sheet name="Indices" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Database">Metrics!$A$1:$G$24</definedName>
+    <definedName name="_xlnm.Database">Metrics!$A$1:$D$22</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>Abundance Measures</t>
-  </si>
-  <si>
-    <t>Corrected Abundance</t>
-  </si>
-  <si>
-    <t>EPT Abundance</t>
-  </si>
-  <si>
-    <t>Biotic Indices</t>
-  </si>
-  <si>
-    <t>Hilsenhoff Biotic Index</t>
-  </si>
-  <si>
-    <t>Karr BIBI Metrics</t>
-  </si>
-  <si>
-    <t>Long-Lived Taxa Richness</t>
-  </si>
-  <si>
-    <t>Clinger Richness</t>
-  </si>
-  <si>
-    <t>% Clingers</t>
-  </si>
-  <si>
-    <t>Intolerant Taxa Richness</t>
-  </si>
-  <si>
-    <t>% Tolerant Individuals</t>
-  </si>
-  <si>
-    <t>% Tolerant Taxa</t>
-  </si>
-  <si>
-    <t>Coleoptera Richness</t>
-  </si>
-  <si>
-    <t>Collection Date</t>
-  </si>
-  <si>
-    <t>Biologic Monitoring Import Template</t>
-  </si>
-  <si>
-    <t>Sample ID</t>
-  </si>
-  <si>
-    <t>* When pasting data into Open Waters, you must include column and row headers</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+  <si>
+    <t>Biological Metrics and Indices Import Template</t>
+  </si>
+  <si>
+    <t>Note: columns may be added, removed, or rearranged any way you'd like, but please do not edit column header text. (Import logic uses column names to identify data.)</t>
+  </si>
+  <si>
+    <r>
+      <t>When copy/pasting into Open Waters,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you MUST include the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>green</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> header row.</t>
+    </r>
+  </si>
+  <si>
+    <t>Station ID</t>
+  </si>
+  <si>
+    <t>Activity ID</t>
+  </si>
+  <si>
+    <t>Metric Type ID</t>
+  </si>
+  <si>
+    <t>Metric Type Context</t>
+  </si>
+  <si>
+    <t>Activity Metric Score</t>
+  </si>
+  <si>
+    <t>Activity Metric Value</t>
+  </si>
+  <si>
+    <t>Activity Metric Value Unit</t>
+  </si>
+  <si>
+    <t>Index ID</t>
+  </si>
+  <si>
+    <t>Activity Metric Comment</t>
+  </si>
+  <si>
+    <t>(use next sheet for indices)</t>
+  </si>
+  <si>
+    <t>Metrics</t>
+  </si>
+  <si>
+    <t>Indices</t>
+  </si>
+  <si>
+    <t>Index Type ID</t>
+  </si>
+  <si>
+    <t>Index Score</t>
+  </si>
+  <si>
+    <t>Index Qualifier Code</t>
+  </si>
+  <si>
+    <t>Index Comment</t>
+  </si>
+  <si>
+    <t>Index Calculated Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
-  </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -97,8 +142,15 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -106,11 +158,37 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -124,11 +202,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -137,70 +216,111 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="double">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="double">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="double">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="37" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Input" xfId="1" builtinId="20"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -208,6 +328,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -256,7 +379,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -291,7 +414,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -500,232 +623,428 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:I40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="18.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="4"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-    </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-    </row>
-    <row r="8" spans="1:7" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+    <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+    </row>
+    <row r="4" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4"/>
+      <c r="D4"/>
+    </row>
+    <row r="5" spans="1:9" s="2" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5"/>
+      <c r="D5"/>
+    </row>
+    <row r="6" spans="1:9" s="2" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13"/>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="6"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-    </row>
-    <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="C6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="6"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="D6" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-    </row>
-    <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="F6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="G6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="I6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -733,4 +1052,368 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="50.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="12"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="12"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A23" s="10"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A29" s="10"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" s="10"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" s="10"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="11"/>
+      <c r="E32" s="11"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="12"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" s="10"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="11"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="11"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>